--- a/biology/Zoologie/Afrixalus_stuhlmanni/Afrixalus_stuhlmanni.xlsx
+++ b/biology/Zoologie/Afrixalus_stuhlmanni/Afrixalus_stuhlmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrixalus stuhlmanni est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrixalus stuhlmanni est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Nord et le centre Tanzanie, y compris sur l'île d'Unguja dans l'archipel de Zanzibar, dans les forêts côtières du Kenya et dans le Nord du Mozambique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Nord et le centre Tanzanie, y compris sur l'île d'Unguja dans l'archipel de Zanzibar, dans les forêts côtières du Kenya et dans le Nord du Mozambique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pickersgill, 2005 trois sous-espèces peuvent être reconnues[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pickersgill, 2005 trois sous-espèces peuvent être reconnues :
 Afrixalus stuhlmanni stuhlmanni (Pfeffer, 1893)
 Afrixalus stuhlmanni pygmaeus (Ahl, 1931)
 Afrixalus stuhlmanni brachycnemis (Boulenger, 1896) - considérée comme une espèce à part par Amphibian Species of the World et classée LC par l'UICN.</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Franz Stuhlmann (1863-1928)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Franz Stuhlmann (1863-1928).
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ahl, 1931 : Amphibia, Anura III, Polypedatidae. Das Tierreich, vol. 55, p. 1-477.
 Boulenger, 1896 : Descriptions of new batrachians in the British Museum. Annals and Magazine of Natural History, sér. 6, vol. 17, p. 401-406 (texte intégral).
